--- a/03_Optimus/01_Documents Projet/01_Documents Organisation/05_Gannt_Essai_Préparation_Compet/Check_liste_départ_essai.xlsx
+++ b/03_Optimus/01_Documents Projet/01_Documents Organisation/05_Gannt_Essai_Préparation_Compet/Check_liste_départ_essai.xlsx
@@ -1,21 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21425"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F0D9B5E-34E0-4FAC-8534-6B1734733EE0}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="110" windowWidth="14810" windowHeight="8020" activeTab="1"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15620" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Check_List_départ" sheetId="1" r:id="rId1"/>
     <sheet name="Check_List_véhicule" sheetId="4" r:id="rId2"/>
+    <sheet name="Feuil1" sheetId="5" r:id="rId3"/>
+    <sheet name="Contrôle technique" sheetId="6" r:id="rId4"/>
+    <sheet name="Accélération" sheetId="7" r:id="rId5"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="534" uniqueCount="282">
   <si>
     <t>Pince à rivet</t>
   </si>
@@ -513,13 +517,403 @@
   </si>
   <si>
     <t>Circlip positionnés vers le bas et dans les gorges</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Séance de roulage n° : </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Date : </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Responsable : </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Objectifs : </t>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <rFont val="Corbel"/>
+        <family val="2"/>
+      </rPr>
+      <t>ère</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Corbel"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> vérif</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <rFont val="Corbel"/>
+        <family val="2"/>
+      </rPr>
+      <t>ème</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Corbel"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> vérif</t>
+    </r>
+  </si>
+  <si>
+    <t>Niveaux des fluides</t>
+  </si>
+  <si>
+    <t>Absence de fuite</t>
+  </si>
+  <si>
+    <t>Serrage des colliers</t>
+  </si>
+  <si>
+    <t>Huile</t>
+  </si>
+  <si>
+    <t>Connecteurs des sondes de température</t>
+  </si>
+  <si>
+    <t>Serrage des vis</t>
+  </si>
+  <si>
+    <t>IHM</t>
+  </si>
+  <si>
+    <t>Serrage de toutes les vis du pédalier</t>
+  </si>
+  <si>
+    <t>Position correcte du pédalier</t>
+  </si>
+  <si>
+    <t>Réglage du TPS</t>
+  </si>
+  <si>
+    <t>Absence de fuite de liquide de frein</t>
+  </si>
+  <si>
+    <t>Connecteurs TPS, pression et température</t>
+  </si>
+  <si>
+    <t>Overtravel switch en position on</t>
+  </si>
+  <si>
+    <t>Serrage de toutes les vis</t>
+  </si>
+  <si>
+    <t>Serrage des supports de siège</t>
+  </si>
+  <si>
+    <t>Serrage du collier de filtre à air</t>
+  </si>
+  <si>
+    <t>Mousses de siège correctes</t>
+  </si>
+  <si>
+    <t>Tension du câble d'accélérateur</t>
+  </si>
+  <si>
+    <t>Points d'attaches et réglage du harnais</t>
+  </si>
+  <si>
+    <t>Serrage des colliers d'admission</t>
+  </si>
+  <si>
+    <t>Connecteur des palettes au volant</t>
+  </si>
+  <si>
+    <t>Connecteurs vissés dans la paroi pare-feu</t>
+  </si>
+  <si>
+    <t>Serrage des vis de l'appui-tête</t>
+  </si>
+  <si>
+    <t>Serrage</t>
+  </si>
+  <si>
+    <t>Circuit d'essence</t>
+  </si>
+  <si>
+    <t>Serrage des contre-écrous de biellettes</t>
+  </si>
+  <si>
+    <t>Serrage des raccords et des vis</t>
+  </si>
+  <si>
+    <t>Présence des goupilles</t>
+  </si>
+  <si>
+    <t>Réglage du régulateur de pression</t>
+  </si>
+  <si>
+    <t>Serrage des cosses de pompe à essence</t>
+  </si>
+  <si>
+    <t>Embrayage</t>
+  </si>
+  <si>
+    <t>Connecteurs injecteurs</t>
+  </si>
+  <si>
+    <t>Position</t>
+  </si>
+  <si>
+    <t>Commande de boîte</t>
+  </si>
+  <si>
+    <t>Tension du câble</t>
+  </si>
+  <si>
+    <t>Cosses du contacteur d'embrayage</t>
+  </si>
+  <si>
+    <t>Connecteur du solénoïde</t>
+  </si>
+  <si>
+    <t>Electrique</t>
+  </si>
+  <si>
+    <t>Transmission</t>
+  </si>
+  <si>
+    <t>Serrage des cosses de batterie</t>
+  </si>
+  <si>
+    <t>Tension de chaîne</t>
+  </si>
+  <si>
+    <t>Tension de la batterie</t>
+  </si>
+  <si>
+    <t>Graissage de la chaîne</t>
+  </si>
+  <si>
+    <t>Serrage des cosses du coupe-circuit</t>
+  </si>
+  <si>
+    <t>Présence du coupe-circuit</t>
+  </si>
+  <si>
+    <t>Serrage des contre-écrous des biellettes</t>
+  </si>
+  <si>
+    <t>Etat général des fils et des connecteurs</t>
+  </si>
+  <si>
+    <t>Jeu latéral des arbres</t>
+  </si>
+  <si>
+    <t>Connecteur de feu stop</t>
+  </si>
+  <si>
+    <t>Présence des ressorts</t>
+  </si>
+  <si>
+    <t>1ère vérif</t>
+  </si>
+  <si>
+    <t>2ème vérif</t>
+  </si>
+  <si>
+    <t>AVG</t>
+  </si>
+  <si>
+    <t>AVD</t>
+  </si>
+  <si>
+    <t>ARG</t>
+  </si>
+  <si>
+    <t>ARD</t>
+  </si>
+  <si>
+    <t>Serrage des vis côté châssis</t>
+  </si>
+  <si>
+    <t>Serrage des vis côté porte-moyeu</t>
+  </si>
+  <si>
+    <t>Serrage des vis de la chape direction</t>
+  </si>
+  <si>
+    <t>Serrage de l'écrou de précontrainte</t>
+  </si>
+  <si>
+    <t>Serrage des vis de l'étrier</t>
+  </si>
+  <si>
+    <t>Serrage du raccord banjo</t>
+  </si>
+  <si>
+    <t>Présence des circlips du disque</t>
+  </si>
+  <si>
+    <t>Serrage des axes du basculeur</t>
+  </si>
+  <si>
+    <t>Absence de fuite de l'amortisseur</t>
+  </si>
+  <si>
+    <t>Serrage des écrous de roue</t>
+  </si>
+  <si>
+    <t>Vérification de la pression du pneu</t>
+  </si>
+  <si>
+    <t>Présence du bouchon de valve</t>
+  </si>
+  <si>
+    <t>Mesures effectuées sur un sol plat, avec pilote (ou masses de remplacement) et avec plein d'essence</t>
+  </si>
+  <si>
+    <t>Avant</t>
+  </si>
+  <si>
+    <t>Arrière</t>
+  </si>
+  <si>
+    <t>Gauche</t>
+  </si>
+  <si>
+    <t>Droite</t>
+  </si>
+  <si>
+    <t>Pneus</t>
+  </si>
+  <si>
+    <t>Pression (pneu froid)</t>
+  </si>
+  <si>
+    <t>Cale carrossage</t>
+  </si>
+  <si>
+    <t>avant</t>
+  </si>
+  <si>
+    <t>arrière</t>
+  </si>
+  <si>
+    <t>Carrossage</t>
+  </si>
+  <si>
+    <t>Pince/ouverture</t>
+  </si>
+  <si>
+    <t>Amortisseurs :</t>
+  </si>
+  <si>
+    <t>Raideur ressort</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     lbs/in</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   lbs/in</t>
+  </si>
+  <si>
+    <t>Précharge</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            mm</t>
+  </si>
+  <si>
+    <t>Compression BF</t>
+  </si>
+  <si>
+    <t>Compression HF</t>
+  </si>
+  <si>
+    <t>xxx</t>
+  </si>
+  <si>
+    <t>Détente BF</t>
+  </si>
+  <si>
+    <t>Détente HF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Répartition poids     Cible     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">           Réel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            kg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            %</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                      %</t>
+  </si>
+  <si>
+    <t>Garde au sol</t>
+  </si>
+  <si>
+    <t>Régime shiftlight</t>
+  </si>
+  <si>
+    <t>Position embrayage</t>
+  </si>
+  <si>
+    <t>Position pédalier</t>
+  </si>
+  <si>
+    <t>Mousses siège</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Remarque : </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> bar</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> lbs/in</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> click</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> clicks</t>
+  </si>
+  <si>
+    <t>click</t>
+  </si>
+  <si>
+    <t>Minimum</t>
+  </si>
+  <si>
+    <t>Maximum</t>
+  </si>
+  <si>
+    <t>Remarques :</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="9" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="24" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -583,6 +977,111 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Corbel"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Corbel"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="22"/>
+      <color rgb="FFC00000"/>
+      <name val="Corbel"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFC00000"/>
+      <name val="Corbel"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Corbel"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <vertAlign val="superscript"/>
+      <sz val="11"/>
+      <name val="Corbel"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFC00000"/>
+      <name val="Corbel"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1" tint="0.499984740745262"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -598,7 +1097,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="37">
     <border>
       <left/>
       <right/>
@@ -647,11 +1146,414 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="135">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -667,32 +1569,373 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="17" fillId="0" borderId="32" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -787,6 +2030,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -822,6 +2082,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -997,7 +2274,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <tabColor theme="6"/>
   </sheetPr>
@@ -1024,20 +2301,20 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:16" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="11" t="s">
+      <c r="A2" s="17" t="s">
         <v>75</v>
       </c>
-      <c r="B2" s="12"/>
+      <c r="B2" s="18"/>
       <c r="C2" s="8"/>
       <c r="G2" s="3" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A3" s="11" t="s">
+      <c r="A3" s="17" t="s">
         <v>76</v>
       </c>
-      <c r="B3" s="12"/>
+      <c r="B3" s="18"/>
       <c r="C3" s="8"/>
       <c r="E3" s="9"/>
       <c r="H3" s="7" t="s">
@@ -1055,10 +2332,10 @@
       <c r="P3" s="2"/>
     </row>
     <row r="4" spans="1:16" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="11" t="s">
+      <c r="A4" s="17" t="s">
         <v>77</v>
       </c>
-      <c r="B4" s="12"/>
+      <c r="B4" s="18"/>
       <c r="C4" s="8"/>
       <c r="H4" s="7" t="s">
         <v>70</v>
@@ -1074,10 +2351,10 @@
       </c>
     </row>
     <row r="5" spans="1:16" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="11" t="s">
+      <c r="A5" s="17" t="s">
         <v>78</v>
       </c>
-      <c r="B5" s="12"/>
+      <c r="B5" s="18"/>
       <c r="C5" s="8"/>
       <c r="H5" s="7" t="s">
         <v>70</v>
@@ -1656,25 +2933,25 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <tabColor theme="8"/>
   </sheetPr>
   <dimension ref="A1:N51"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageLayout" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="115" workbookViewId="0">
+    <sheetView showGridLines="0" view="pageLayout" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="115" workbookViewId="0">
       <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="4.453125" style="15" customWidth="1"/>
-    <col min="2" max="2" width="3.453125" style="15" customWidth="1"/>
-    <col min="3" max="3" width="40.6328125" style="15" customWidth="1"/>
-    <col min="4" max="4" width="4.90625" style="15" customWidth="1"/>
-    <col min="5" max="5" width="3.81640625" style="15" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="38.36328125" style="15" customWidth="1"/>
-    <col min="7" max="16384" width="8.81640625" style="15"/>
+    <col min="1" max="1" width="4.453125" style="13" customWidth="1"/>
+    <col min="2" max="2" width="3.453125" style="13" customWidth="1"/>
+    <col min="3" max="3" width="40.6328125" style="13" customWidth="1"/>
+    <col min="4" max="4" width="4.90625" style="13" customWidth="1"/>
+    <col min="5" max="5" width="3.81640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="38.36328125" style="13" customWidth="1"/>
+    <col min="7" max="16384" width="8.81640625" style="13"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="18.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
@@ -1690,64 +2967,64 @@
       <c r="F1" s="19"/>
     </row>
     <row r="2" spans="1:14" ht="15" x14ac:dyDescent="0.35">
-      <c r="A2" s="14"/>
-      <c r="B2" s="16" t="s">
-        <v>70</v>
-      </c>
-      <c r="C2" s="13" t="s">
+      <c r="A2" s="12"/>
+      <c r="B2" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="C2" s="11" t="s">
         <v>160</v>
       </c>
-      <c r="D2" s="17"/>
-      <c r="E2" s="16" t="s">
-        <v>70</v>
-      </c>
-      <c r="F2" s="15" t="s">
+      <c r="D2" s="15"/>
+      <c r="E2" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="F2" s="13" t="s">
         <v>122</v>
       </c>
-      <c r="N2" s="17"/>
+      <c r="N2" s="15"/>
     </row>
     <row r="3" spans="1:14" ht="15" x14ac:dyDescent="0.35">
-      <c r="B3" s="16" t="s">
-        <v>70</v>
-      </c>
-      <c r="C3" s="13" t="s">
+      <c r="B3" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="C3" s="11" t="s">
         <v>143</v>
       </c>
-      <c r="E3" s="16" t="s">
-        <v>70</v>
-      </c>
-      <c r="F3" s="15" t="s">
+      <c r="E3" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="F3" s="13" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="4" spans="1:14" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="16" t="s">
-        <v>70</v>
-      </c>
-      <c r="C4" s="13" t="s">
+      <c r="B4" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="C4" s="11" t="s">
         <v>165</v>
       </c>
-      <c r="E4" s="16" t="s">
-        <v>70</v>
-      </c>
-      <c r="F4" s="15" t="s">
+      <c r="E4" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="F4" s="13" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="5" spans="1:14" ht="15" x14ac:dyDescent="0.35">
-      <c r="B5" s="16" t="s">
-        <v>70</v>
-      </c>
-      <c r="C5" s="13" t="s">
+      <c r="B5" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="C5" s="11" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="6" spans="1:14" ht="18.5" x14ac:dyDescent="0.35">
-      <c r="A6" s="18"/>
-      <c r="B6" s="16" t="s">
-        <v>70</v>
-      </c>
-      <c r="C6" s="13" t="s">
+      <c r="A6" s="16"/>
+      <c r="B6" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="C6" s="11" t="s">
         <v>141</v>
       </c>
       <c r="D6" s="19" t="s">
@@ -1757,39 +3034,39 @@
       <c r="F6" s="19"/>
     </row>
     <row r="7" spans="1:14" ht="15" x14ac:dyDescent="0.35">
-      <c r="B7" s="16" t="s">
-        <v>70</v>
-      </c>
-      <c r="C7" s="15" t="s">
+      <c r="B7" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="C7" s="13" t="s">
         <v>161</v>
       </c>
-      <c r="E7" s="16" t="s">
-        <v>70</v>
-      </c>
-      <c r="F7" s="15" t="s">
+      <c r="E7" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="F7" s="13" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="8" spans="1:14" ht="29" x14ac:dyDescent="0.35">
-      <c r="B8" s="16" t="s">
-        <v>70</v>
-      </c>
-      <c r="C8" s="13" t="s">
+      <c r="B8" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="C8" s="11" t="s">
         <v>140</v>
       </c>
-      <c r="E8" s="16" t="s">
-        <v>70</v>
-      </c>
-      <c r="F8" s="15" t="s">
+      <c r="E8" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="F8" s="13" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="9" spans="1:14" ht="18.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B9" s="13"/>
-      <c r="E9" s="16" t="s">
-        <v>70</v>
-      </c>
-      <c r="F9" s="15" t="s">
+      <c r="B9" s="11"/>
+      <c r="E9" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="F9" s="13" t="s">
         <v>116</v>
       </c>
     </row>
@@ -1801,10 +3078,10 @@
       <c r="C10" s="19"/>
     </row>
     <row r="11" spans="1:14" ht="18.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B11" s="16" t="s">
-        <v>70</v>
-      </c>
-      <c r="C11" s="15" t="s">
+      <c r="B11" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="C11" s="13" t="s">
         <v>139</v>
       </c>
       <c r="D11" s="19" t="s">
@@ -1814,61 +3091,61 @@
       <c r="F11" s="19"/>
     </row>
     <row r="12" spans="1:14" ht="29" x14ac:dyDescent="0.35">
-      <c r="B12" s="16" t="s">
-        <v>70</v>
-      </c>
-      <c r="C12" s="15" t="s">
+      <c r="B12" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="C12" s="13" t="s">
         <v>162</v>
       </c>
-      <c r="E12" s="16" t="s">
-        <v>70</v>
-      </c>
-      <c r="F12" s="15" t="s">
+      <c r="E12" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="F12" s="13" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="13" spans="1:14" ht="29" x14ac:dyDescent="0.35">
-      <c r="B13" s="16" t="s">
-        <v>70</v>
-      </c>
-      <c r="C13" s="15" t="s">
+      <c r="B13" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="C13" s="13" t="s">
         <v>164</v>
       </c>
-      <c r="E13" s="16" t="s">
-        <v>70</v>
-      </c>
-      <c r="F13" s="15" t="s">
+      <c r="E13" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="F13" s="13" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="14" spans="1:14" ht="18.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B14" s="16" t="s">
-        <v>70</v>
-      </c>
-      <c r="C14" s="15" t="s">
+      <c r="B14" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="C14" s="13" t="s">
         <v>138</v>
       </c>
-      <c r="E14" s="16" t="s">
-        <v>70</v>
-      </c>
-      <c r="F14" s="15" t="s">
+      <c r="E14" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="F14" s="13" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="15" spans="1:14" ht="15" x14ac:dyDescent="0.35">
-      <c r="B15" s="16" t="s">
-        <v>70</v>
-      </c>
-      <c r="C15" s="15" t="s">
+      <c r="B15" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="C15" s="13" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="16" spans="1:14" ht="18.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="18"/>
-      <c r="B16" s="16" t="s">
-        <v>70</v>
-      </c>
-      <c r="C16" s="13" t="s">
+      <c r="A16" s="16"/>
+      <c r="B16" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="C16" s="11" t="s">
         <v>136</v>
       </c>
       <c r="D16" s="19" t="s">
@@ -1878,30 +3155,30 @@
       <c r="F16" s="19"/>
     </row>
     <row r="17" spans="1:6" ht="18.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B17" s="16" t="s">
-        <v>70</v>
-      </c>
-      <c r="C17" s="15" t="s">
+      <c r="B17" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="C17" s="13" t="s">
         <v>135</v>
       </c>
-      <c r="E17" s="16" t="s">
-        <v>70</v>
-      </c>
-      <c r="F17" s="15" t="s">
+      <c r="E17" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="F17" s="13" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="18.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B18" s="16" t="s">
-        <v>70</v>
-      </c>
-      <c r="C18" s="15" t="s">
+      <c r="B18" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="C18" s="13" t="s">
         <v>134</v>
       </c>
-      <c r="E18" s="16" t="s">
-        <v>70</v>
-      </c>
-      <c r="F18" s="15" t="s">
+      <c r="E18" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="F18" s="13" t="s">
         <v>110</v>
       </c>
     </row>
@@ -1919,25 +3196,25 @@
       <c r="F20" s="19"/>
     </row>
     <row r="21" spans="1:6" ht="18.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B21" s="16" t="s">
-        <v>70</v>
-      </c>
-      <c r="C21" s="15" t="s">
+      <c r="B21" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="C21" s="13" t="s">
         <v>137</v>
       </c>
-      <c r="E21" s="16" t="s">
-        <v>70</v>
-      </c>
-      <c r="F21" s="15" t="s">
+      <c r="E21" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="F21" s="13" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="18.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B22" s="16"/>
-      <c r="E22" s="16" t="s">
-        <v>70</v>
-      </c>
-      <c r="F22" s="15" t="s">
+      <c r="B22" s="14"/>
+      <c r="E22" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="F22" s="13" t="s">
         <v>108</v>
       </c>
     </row>
@@ -1947,57 +3224,57 @@
       </c>
       <c r="B23" s="19"/>
       <c r="C23" s="19"/>
-      <c r="E23" s="16" t="s">
-        <v>70</v>
-      </c>
-      <c r="F23" s="15" t="s">
+      <c r="E23" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="F23" s="13" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="18.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B24" s="16" t="s">
-        <v>70</v>
-      </c>
-      <c r="C24" s="15" t="s">
+      <c r="B24" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="C24" s="13" t="s">
         <v>109</v>
       </c>
-      <c r="E24" s="16" t="s">
-        <v>70</v>
-      </c>
-      <c r="F24" s="15" t="s">
+      <c r="E24" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="F24" s="13" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="18.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B25" s="16" t="s">
-        <v>70</v>
-      </c>
-      <c r="C25" s="15" t="s">
+      <c r="B25" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="C25" s="13" t="s">
         <v>132</v>
       </c>
-      <c r="E25" s="16" t="s">
-        <v>70</v>
-      </c>
-      <c r="F25" s="15" t="s">
+      <c r="E25" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="F25" s="13" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="18.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B26" s="16" t="s">
-        <v>70</v>
-      </c>
-      <c r="C26" s="15" t="s">
+      <c r="B26" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="C26" s="13" t="s">
         <v>131</v>
       </c>
-      <c r="E26" s="16" t="s">
-        <v>70</v>
-      </c>
-      <c r="F26" s="15" t="s">
+      <c r="E26" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="F26" s="13" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="27" spans="1:6" ht="18.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B27" s="16"/>
+      <c r="B27" s="14"/>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A28" s="19" t="s">
@@ -2012,94 +3289,94 @@
       <c r="F28" s="19"/>
     </row>
     <row r="29" spans="1:6" ht="18.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B29" s="16" t="s">
-        <v>70</v>
-      </c>
-      <c r="C29" s="15" t="s">
+      <c r="B29" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="C29" s="13" t="s">
         <v>130</v>
       </c>
-      <c r="E29" s="16" t="s">
-        <v>70</v>
-      </c>
-      <c r="F29" s="15" t="s">
+      <c r="E29" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="F29" s="13" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="30" spans="1:6" ht="18.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B30" s="16" t="s">
-        <v>70</v>
-      </c>
-      <c r="C30" s="15" t="s">
+      <c r="B30" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="C30" s="13" t="s">
         <v>129</v>
       </c>
-      <c r="E30" s="16" t="s">
-        <v>70</v>
-      </c>
-      <c r="F30" s="15" t="s">
+      <c r="E30" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="F30" s="13" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="31" spans="1:6" ht="18.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B31" s="16" t="s">
-        <v>70</v>
-      </c>
-      <c r="C31" s="15" t="s">
+      <c r="B31" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="C31" s="13" t="s">
         <v>128</v>
       </c>
-      <c r="E31" s="16" t="s">
-        <v>70</v>
-      </c>
-      <c r="F31" s="15" t="s">
+      <c r="E31" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="F31" s="13" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="32" spans="1:6" ht="18.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B32" s="16" t="s">
-        <v>70</v>
-      </c>
-      <c r="C32" s="15" t="s">
+      <c r="B32" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="C32" s="13" t="s">
         <v>127</v>
       </c>
-      <c r="E32" s="16" t="s">
-        <v>70</v>
-      </c>
-      <c r="F32" s="15" t="s">
+      <c r="E32" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="F32" s="13" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="33" spans="1:6" ht="18.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B33" s="16" t="s">
-        <v>70</v>
-      </c>
-      <c r="C33" s="15" t="s">
+      <c r="B33" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="C33" s="13" t="s">
         <v>126</v>
       </c>
-      <c r="E33" s="16" t="s">
-        <v>70</v>
-      </c>
-      <c r="F33" s="15" t="s">
+      <c r="E33" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="F33" s="13" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="34" spans="1:6" ht="18.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B34" s="16" t="s">
-        <v>70</v>
-      </c>
-      <c r="C34" s="15" t="s">
+      <c r="B34" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="C34" s="13" t="s">
         <v>125</v>
       </c>
-      <c r="E34" s="16" t="s">
-        <v>70</v>
-      </c>
-      <c r="F34" s="15" t="s">
+      <c r="E34" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="F34" s="13" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="35" spans="1:6" ht="15" x14ac:dyDescent="0.35">
-      <c r="E35" s="16" t="s">
-        <v>70</v>
-      </c>
-      <c r="F35" s="15" t="s">
+      <c r="E35" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="F35" s="13" t="s">
         <v>97</v>
       </c>
     </row>
@@ -2109,46 +3386,46 @@
       </c>
       <c r="B36" s="19"/>
       <c r="C36" s="19"/>
-      <c r="E36" s="16" t="s">
-        <v>70</v>
-      </c>
-      <c r="F36" s="15" t="s">
+      <c r="E36" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="F36" s="13" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="37" spans="1:6" ht="15" x14ac:dyDescent="0.35">
-      <c r="B37" s="16" t="s">
-        <v>70</v>
-      </c>
-      <c r="C37" s="15" t="s">
+      <c r="B37" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="C37" s="13" t="s">
         <v>124</v>
       </c>
-      <c r="E37" s="16" t="s">
-        <v>70</v>
-      </c>
-      <c r="F37" s="15" t="s">
+      <c r="E37" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="F37" s="13" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="38" spans="1:6" ht="15" x14ac:dyDescent="0.35">
-      <c r="B38" s="16" t="s">
-        <v>70</v>
-      </c>
-      <c r="C38" s="15" t="s">
+      <c r="B38" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="C38" s="13" t="s">
         <v>153</v>
       </c>
-      <c r="E38" s="16" t="s">
-        <v>70</v>
-      </c>
-      <c r="F38" s="15" t="s">
+      <c r="E38" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="F38" s="13" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="39" spans="1:6" ht="15" x14ac:dyDescent="0.35">
-      <c r="E39" s="16" t="s">
-        <v>70</v>
-      </c>
-      <c r="F39" s="15" t="s">
+      <c r="E39" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="F39" s="13" t="s">
         <v>93</v>
       </c>
     </row>
@@ -2160,18 +3437,18 @@
       <c r="C40" s="19"/>
     </row>
     <row r="41" spans="1:6" ht="15" x14ac:dyDescent="0.35">
-      <c r="B41" s="16" t="s">
-        <v>70</v>
-      </c>
-      <c r="C41" s="15" t="s">
+      <c r="B41" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="C41" s="13" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="42" spans="1:6" ht="15" x14ac:dyDescent="0.35">
-      <c r="B42" s="16" t="s">
-        <v>70</v>
-      </c>
-      <c r="C42" s="15" t="s">
+      <c r="B42" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="C42" s="13" t="s">
         <v>91</v>
       </c>
     </row>
@@ -2183,18 +3460,18 @@
       <c r="C44" s="19"/>
     </row>
     <row r="45" spans="1:6" ht="19" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B45" s="16" t="s">
-        <v>70</v>
-      </c>
-      <c r="C45" s="15" t="s">
+      <c r="B45" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="C45" s="13" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="46" spans="1:6" ht="15" x14ac:dyDescent="0.35">
-      <c r="B46" s="16" t="s">
-        <v>70</v>
-      </c>
-      <c r="C46" s="15" t="s">
+      <c r="B46" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="C46" s="13" t="s">
         <v>89</v>
       </c>
     </row>
@@ -2206,26 +3483,26 @@
       <c r="C48" s="19"/>
     </row>
     <row r="49" spans="2:3" ht="15" x14ac:dyDescent="0.35">
-      <c r="B49" s="16" t="s">
-        <v>70</v>
-      </c>
-      <c r="C49" s="15" t="s">
+      <c r="B49" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="C49" s="13" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="50" spans="2:3" ht="15" x14ac:dyDescent="0.35">
-      <c r="B50" s="16" t="s">
-        <v>70</v>
-      </c>
-      <c r="C50" s="15" t="s">
+      <c r="B50" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="C50" s="13" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="51" spans="2:3" ht="15" x14ac:dyDescent="0.35">
-      <c r="B51" s="16" t="s">
-        <v>70</v>
-      </c>
-      <c r="C51" s="15" t="s">
+      <c r="B51" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="C51" s="13" t="s">
         <v>84</v>
       </c>
     </row>
@@ -2254,4 +3531,1771 @@
     <oddFooter>&amp;Lpar NGO&amp;CVersion 2.0 du 09/02/2019&amp;RSTUF'2019 - Optimus</oddFooter>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E98213A-2211-4DD3-A174-D22AC97E3160}">
+  <dimension ref="A2:J64"/>
+  <sheetViews>
+    <sheetView showGridLines="0" view="pageLayout" zoomScale="110" zoomScaleNormal="85" zoomScalePageLayoutView="110" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="38.81640625" style="32" customWidth="1"/>
+    <col min="2" max="5" width="8.81640625" style="22" customWidth="1"/>
+    <col min="6" max="6" width="10.81640625" style="22" customWidth="1"/>
+    <col min="7" max="10" width="8.81640625" style="22" customWidth="1"/>
+    <col min="11" max="16384" width="8.90625" style="22"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A2" s="20" t="s">
+        <v>166</v>
+      </c>
+      <c r="B2" s="21"/>
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="21" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="28.5" x14ac:dyDescent="0.35">
+      <c r="A3" s="20" t="s">
+        <v>168</v>
+      </c>
+      <c r="B3" s="23"/>
+      <c r="C3" s="23"/>
+      <c r="D3" s="23"/>
+      <c r="E3" s="21" t="s">
+        <v>169</v>
+      </c>
+      <c r="F3" s="23"/>
+      <c r="G3" s="23"/>
+      <c r="H3" s="23"/>
+      <c r="I3" s="23"/>
+      <c r="J3" s="23"/>
+    </row>
+    <row r="4" spans="1:10" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A4" s="24"/>
+      <c r="B4" s="25" t="s">
+        <v>170</v>
+      </c>
+      <c r="C4" s="25" t="s">
+        <v>171</v>
+      </c>
+      <c r="D4" s="26"/>
+      <c r="E4" s="26"/>
+      <c r="F4" s="26"/>
+      <c r="G4" s="26"/>
+      <c r="H4" s="26"/>
+      <c r="I4" s="25" t="s">
+        <v>170</v>
+      </c>
+      <c r="J4" s="25" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A5" s="27" t="s">
+        <v>172</v>
+      </c>
+      <c r="B5" s="26"/>
+      <c r="C5" s="26"/>
+      <c r="D5" s="26"/>
+      <c r="E5" s="28" t="s">
+        <v>88</v>
+      </c>
+      <c r="F5" s="28"/>
+      <c r="G5" s="28"/>
+      <c r="H5" s="28"/>
+      <c r="I5" s="26"/>
+      <c r="J5" s="26"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A6" s="29" t="s">
+        <v>30</v>
+      </c>
+      <c r="B6" s="30"/>
+      <c r="C6" s="30"/>
+      <c r="E6" s="31" t="s">
+        <v>173</v>
+      </c>
+      <c r="F6" s="31"/>
+      <c r="G6" s="31"/>
+      <c r="H6" s="31"/>
+      <c r="I6" s="30"/>
+      <c r="J6" s="30"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A7" s="29" t="s">
+        <v>29</v>
+      </c>
+      <c r="B7" s="30"/>
+      <c r="C7" s="30"/>
+      <c r="E7" s="31" t="s">
+        <v>174</v>
+      </c>
+      <c r="F7" s="31"/>
+      <c r="G7" s="31"/>
+      <c r="H7" s="31"/>
+      <c r="I7" s="30"/>
+      <c r="J7" s="30"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A8" s="29" t="s">
+        <v>175</v>
+      </c>
+      <c r="B8" s="30"/>
+      <c r="C8" s="30"/>
+      <c r="E8" s="31" t="s">
+        <v>176</v>
+      </c>
+      <c r="F8" s="31"/>
+      <c r="G8" s="31"/>
+      <c r="H8" s="31"/>
+      <c r="I8" s="30"/>
+      <c r="J8" s="30"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A9" s="29" t="s">
+        <v>34</v>
+      </c>
+      <c r="B9" s="30"/>
+      <c r="C9" s="30"/>
+      <c r="E9" s="31" t="s">
+        <v>177</v>
+      </c>
+      <c r="F9" s="31"/>
+      <c r="G9" s="31"/>
+      <c r="H9" s="31"/>
+      <c r="I9" s="30"/>
+      <c r="J9" s="30"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="E10" s="33"/>
+      <c r="F10" s="33"/>
+      <c r="G10" s="33"/>
+      <c r="H10" s="33"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A11" s="27" t="s">
+        <v>178</v>
+      </c>
+      <c r="E11" s="33"/>
+      <c r="F11" s="33"/>
+      <c r="G11" s="33"/>
+      <c r="H11" s="33"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A12" s="29" t="s">
+        <v>179</v>
+      </c>
+      <c r="B12" s="30"/>
+      <c r="C12" s="30"/>
+      <c r="E12" s="27" t="s">
+        <v>115</v>
+      </c>
+      <c r="F12" s="27"/>
+      <c r="G12" s="27"/>
+      <c r="H12" s="27"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A13" s="29" t="s">
+        <v>180</v>
+      </c>
+      <c r="B13" s="30"/>
+      <c r="C13" s="30"/>
+      <c r="E13" s="31" t="s">
+        <v>181</v>
+      </c>
+      <c r="F13" s="31"/>
+      <c r="G13" s="31"/>
+      <c r="H13" s="31"/>
+      <c r="I13" s="30"/>
+      <c r="J13" s="30"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A14" s="29" t="s">
+        <v>182</v>
+      </c>
+      <c r="B14" s="30"/>
+      <c r="C14" s="30"/>
+      <c r="E14" s="31" t="s">
+        <v>183</v>
+      </c>
+      <c r="F14" s="31"/>
+      <c r="G14" s="31"/>
+      <c r="H14" s="31"/>
+      <c r="I14" s="30"/>
+      <c r="J14" s="30"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A15" s="29" t="s">
+        <v>184</v>
+      </c>
+      <c r="B15" s="30"/>
+      <c r="C15" s="30"/>
+      <c r="E15" s="31" t="s">
+        <v>185</v>
+      </c>
+      <c r="F15" s="31"/>
+      <c r="G15" s="31"/>
+      <c r="H15" s="31"/>
+      <c r="I15" s="30"/>
+      <c r="J15" s="30"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A16" s="29" t="s">
+        <v>186</v>
+      </c>
+      <c r="B16" s="30"/>
+      <c r="C16" s="30"/>
+      <c r="E16" s="31" t="s">
+        <v>187</v>
+      </c>
+      <c r="F16" s="31"/>
+      <c r="G16" s="31"/>
+      <c r="H16" s="31"/>
+      <c r="I16" s="30"/>
+      <c r="J16" s="30"/>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A17" s="29" t="s">
+        <v>188</v>
+      </c>
+      <c r="B17" s="30"/>
+      <c r="C17" s="30"/>
+      <c r="E17" s="31" t="s">
+        <v>189</v>
+      </c>
+      <c r="F17" s="31"/>
+      <c r="G17" s="31"/>
+      <c r="H17" s="31"/>
+      <c r="I17" s="30"/>
+      <c r="J17" s="30"/>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A18" s="29" t="s">
+        <v>190</v>
+      </c>
+      <c r="B18" s="30"/>
+      <c r="C18" s="30"/>
+      <c r="E18" s="31" t="s">
+        <v>191</v>
+      </c>
+      <c r="F18" s="31"/>
+      <c r="G18" s="31"/>
+      <c r="H18" s="31"/>
+      <c r="I18" s="30"/>
+      <c r="J18" s="30"/>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A19" s="29" t="s">
+        <v>192</v>
+      </c>
+      <c r="B19" s="30"/>
+      <c r="C19" s="30"/>
+      <c r="E19" s="33"/>
+      <c r="F19" s="33"/>
+      <c r="G19" s="33"/>
+      <c r="H19" s="33"/>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A20" s="29" t="s">
+        <v>193</v>
+      </c>
+      <c r="B20" s="30"/>
+      <c r="C20" s="30"/>
+      <c r="E20" s="34" t="s">
+        <v>149</v>
+      </c>
+      <c r="F20" s="34"/>
+      <c r="G20" s="34"/>
+      <c r="H20" s="34"/>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A21" s="29" t="s">
+        <v>194</v>
+      </c>
+      <c r="B21" s="30"/>
+      <c r="C21" s="30"/>
+      <c r="E21" s="31" t="s">
+        <v>195</v>
+      </c>
+      <c r="F21" s="31"/>
+      <c r="G21" s="31"/>
+      <c r="H21" s="31"/>
+      <c r="I21" s="30"/>
+      <c r="J21" s="30"/>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="E22" s="33"/>
+      <c r="F22" s="33"/>
+      <c r="G22" s="33"/>
+      <c r="H22" s="33"/>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A23" s="27" t="s">
+        <v>146</v>
+      </c>
+      <c r="E23" s="34" t="s">
+        <v>196</v>
+      </c>
+      <c r="F23" s="34"/>
+      <c r="G23" s="34"/>
+      <c r="H23" s="34"/>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A24" s="29" t="s">
+        <v>185</v>
+      </c>
+      <c r="B24" s="30"/>
+      <c r="C24" s="30"/>
+      <c r="E24" s="31" t="s">
+        <v>173</v>
+      </c>
+      <c r="F24" s="31"/>
+      <c r="G24" s="31"/>
+      <c r="H24" s="31"/>
+      <c r="I24" s="30"/>
+      <c r="J24" s="30"/>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A25" s="29" t="s">
+        <v>197</v>
+      </c>
+      <c r="B25" s="30"/>
+      <c r="C25" s="30"/>
+      <c r="E25" s="31" t="s">
+        <v>198</v>
+      </c>
+      <c r="F25" s="31"/>
+      <c r="G25" s="31"/>
+      <c r="H25" s="31"/>
+      <c r="I25" s="30"/>
+      <c r="J25" s="30"/>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A26" s="29" t="s">
+        <v>199</v>
+      </c>
+      <c r="B26" s="30"/>
+      <c r="C26" s="30"/>
+      <c r="E26" s="31" t="s">
+        <v>200</v>
+      </c>
+      <c r="F26" s="31"/>
+      <c r="G26" s="31"/>
+      <c r="H26" s="31"/>
+      <c r="I26" s="30"/>
+      <c r="J26" s="30"/>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="E27" s="31" t="s">
+        <v>201</v>
+      </c>
+      <c r="F27" s="31"/>
+      <c r="G27" s="31"/>
+      <c r="H27" s="31"/>
+      <c r="I27" s="30"/>
+      <c r="J27" s="30"/>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A28" s="27" t="s">
+        <v>202</v>
+      </c>
+      <c r="E28" s="31" t="s">
+        <v>203</v>
+      </c>
+      <c r="F28" s="31"/>
+      <c r="G28" s="31"/>
+      <c r="H28" s="31"/>
+      <c r="I28" s="30"/>
+      <c r="J28" s="30"/>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A29" s="29" t="s">
+        <v>204</v>
+      </c>
+      <c r="B29" s="30"/>
+      <c r="C29" s="30"/>
+      <c r="E29" s="33"/>
+      <c r="F29" s="33"/>
+      <c r="G29" s="33"/>
+      <c r="H29" s="33"/>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A30" s="29" t="s">
+        <v>185</v>
+      </c>
+      <c r="B30" s="30"/>
+      <c r="C30" s="30"/>
+      <c r="E30" s="27" t="s">
+        <v>205</v>
+      </c>
+      <c r="F30" s="27"/>
+      <c r="G30" s="27"/>
+      <c r="H30" s="27"/>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A31" s="29" t="s">
+        <v>206</v>
+      </c>
+      <c r="B31" s="30"/>
+      <c r="C31" s="30"/>
+      <c r="E31" s="31" t="s">
+        <v>177</v>
+      </c>
+      <c r="F31" s="31"/>
+      <c r="G31" s="31"/>
+      <c r="H31" s="31"/>
+      <c r="I31" s="30"/>
+      <c r="J31" s="30"/>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A32" s="29" t="s">
+        <v>207</v>
+      </c>
+      <c r="B32" s="30"/>
+      <c r="C32" s="30"/>
+      <c r="E32" s="31" t="s">
+        <v>208</v>
+      </c>
+      <c r="F32" s="31"/>
+      <c r="G32" s="31"/>
+      <c r="H32" s="31"/>
+      <c r="I32" s="30"/>
+      <c r="J32" s="30"/>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="E33" s="33"/>
+      <c r="F33" s="33"/>
+      <c r="G33" s="33"/>
+      <c r="H33" s="33"/>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A34" s="27" t="s">
+        <v>209</v>
+      </c>
+      <c r="E34" s="34" t="s">
+        <v>210</v>
+      </c>
+      <c r="F34" s="34"/>
+      <c r="G34" s="34"/>
+      <c r="H34" s="34"/>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A35" s="29" t="s">
+        <v>211</v>
+      </c>
+      <c r="B35" s="30"/>
+      <c r="C35" s="30"/>
+      <c r="E35" s="31" t="s">
+        <v>212</v>
+      </c>
+      <c r="F35" s="31"/>
+      <c r="G35" s="31"/>
+      <c r="H35" s="31"/>
+      <c r="I35" s="30"/>
+      <c r="J35" s="30"/>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A36" s="29" t="s">
+        <v>213</v>
+      </c>
+      <c r="B36" s="30"/>
+      <c r="C36" s="30"/>
+      <c r="E36" s="35" t="s">
+        <v>214</v>
+      </c>
+      <c r="F36" s="36"/>
+      <c r="G36" s="36"/>
+      <c r="H36" s="37"/>
+      <c r="I36" s="30"/>
+      <c r="J36" s="30"/>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A37" s="29" t="s">
+        <v>215</v>
+      </c>
+      <c r="B37" s="30"/>
+      <c r="C37" s="30"/>
+      <c r="E37" s="31" t="s">
+        <v>185</v>
+      </c>
+      <c r="F37" s="31"/>
+      <c r="G37" s="31"/>
+      <c r="H37" s="31"/>
+      <c r="I37" s="30"/>
+      <c r="J37" s="30"/>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A38" s="29" t="s">
+        <v>216</v>
+      </c>
+      <c r="B38" s="30"/>
+      <c r="C38" s="30"/>
+      <c r="E38" s="29" t="s">
+        <v>217</v>
+      </c>
+      <c r="F38" s="29"/>
+      <c r="G38" s="29"/>
+      <c r="H38" s="29"/>
+      <c r="I38" s="30"/>
+      <c r="J38" s="30"/>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A39" s="29" t="s">
+        <v>218</v>
+      </c>
+      <c r="B39" s="30"/>
+      <c r="C39" s="30"/>
+      <c r="E39" s="35" t="s">
+        <v>219</v>
+      </c>
+      <c r="F39" s="36"/>
+      <c r="G39" s="36"/>
+      <c r="H39" s="37"/>
+      <c r="I39" s="30"/>
+      <c r="J39" s="30"/>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A40" s="29" t="s">
+        <v>220</v>
+      </c>
+      <c r="B40" s="30"/>
+      <c r="C40" s="30"/>
+      <c r="E40" s="32"/>
+      <c r="F40" s="32"/>
+      <c r="G40" s="32"/>
+      <c r="H40" s="32"/>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="E41" s="38" t="s">
+        <v>123</v>
+      </c>
+      <c r="F41" s="38"/>
+      <c r="G41" s="38"/>
+      <c r="H41" s="38"/>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A42" s="27" t="s">
+        <v>119</v>
+      </c>
+      <c r="E42" s="35" t="s">
+        <v>185</v>
+      </c>
+      <c r="F42" s="36"/>
+      <c r="G42" s="37"/>
+      <c r="H42" s="29"/>
+      <c r="I42" s="30"/>
+      <c r="J42" s="30"/>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A43" s="29" t="s">
+        <v>195</v>
+      </c>
+      <c r="B43" s="30"/>
+      <c r="C43" s="30"/>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A44" s="29" t="s">
+        <v>221</v>
+      </c>
+      <c r="B44" s="30"/>
+      <c r="C44" s="30"/>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A48" s="27" t="s">
+        <v>145</v>
+      </c>
+      <c r="B48" s="39" t="s">
+        <v>222</v>
+      </c>
+      <c r="C48" s="39"/>
+      <c r="D48" s="39"/>
+      <c r="E48" s="39"/>
+      <c r="G48" s="40" t="s">
+        <v>223</v>
+      </c>
+      <c r="H48" s="40"/>
+      <c r="I48" s="40"/>
+      <c r="J48" s="40"/>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="B49" s="22" t="s">
+        <v>224</v>
+      </c>
+      <c r="C49" s="22" t="s">
+        <v>225</v>
+      </c>
+      <c r="D49" s="22" t="s">
+        <v>226</v>
+      </c>
+      <c r="E49" s="22" t="s">
+        <v>227</v>
+      </c>
+      <c r="F49" s="41"/>
+      <c r="G49" s="22" t="s">
+        <v>224</v>
+      </c>
+      <c r="H49" s="22" t="s">
+        <v>225</v>
+      </c>
+      <c r="I49" s="22" t="s">
+        <v>226</v>
+      </c>
+      <c r="J49" s="22" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A50" s="29" t="s">
+        <v>228</v>
+      </c>
+      <c r="B50" s="30"/>
+      <c r="C50" s="30"/>
+      <c r="D50" s="30"/>
+      <c r="E50" s="30"/>
+      <c r="F50" s="42"/>
+      <c r="G50" s="30"/>
+      <c r="H50" s="30"/>
+      <c r="I50" s="30"/>
+      <c r="J50" s="30"/>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A51" s="29" t="s">
+        <v>229</v>
+      </c>
+      <c r="B51" s="30"/>
+      <c r="C51" s="30"/>
+      <c r="D51" s="30"/>
+      <c r="E51" s="30"/>
+      <c r="F51" s="42"/>
+      <c r="G51" s="30"/>
+      <c r="H51" s="30"/>
+      <c r="I51" s="30"/>
+      <c r="J51" s="30"/>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A52" s="29" t="s">
+        <v>230</v>
+      </c>
+      <c r="B52" s="30"/>
+      <c r="C52" s="30"/>
+      <c r="D52" s="30"/>
+      <c r="E52" s="30"/>
+      <c r="F52" s="42"/>
+      <c r="G52" s="30"/>
+      <c r="H52" s="30"/>
+      <c r="I52" s="30"/>
+      <c r="J52" s="30"/>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A53" s="29" t="s">
+        <v>231</v>
+      </c>
+      <c r="B53" s="30"/>
+      <c r="C53" s="30"/>
+      <c r="D53" s="30"/>
+      <c r="E53" s="30"/>
+      <c r="F53" s="42"/>
+      <c r="G53" s="30"/>
+      <c r="H53" s="30"/>
+      <c r="I53" s="30"/>
+      <c r="J53" s="30"/>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A54" s="29" t="s">
+        <v>232</v>
+      </c>
+      <c r="B54" s="30"/>
+      <c r="C54" s="30"/>
+      <c r="D54" s="30"/>
+      <c r="E54" s="30"/>
+      <c r="F54" s="42"/>
+      <c r="G54" s="30"/>
+      <c r="H54" s="30"/>
+      <c r="I54" s="30"/>
+      <c r="J54" s="30"/>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A55" s="29" t="s">
+        <v>233</v>
+      </c>
+      <c r="B55" s="30"/>
+      <c r="C55" s="30"/>
+      <c r="D55" s="30"/>
+      <c r="E55" s="30"/>
+      <c r="F55" s="42"/>
+      <c r="G55" s="30"/>
+      <c r="H55" s="30"/>
+      <c r="I55" s="30"/>
+      <c r="J55" s="30"/>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A56" s="29" t="s">
+        <v>182</v>
+      </c>
+      <c r="B56" s="30"/>
+      <c r="C56" s="30"/>
+      <c r="D56" s="30"/>
+      <c r="E56" s="30"/>
+      <c r="F56" s="42"/>
+      <c r="G56" s="30"/>
+      <c r="H56" s="30"/>
+      <c r="I56" s="30"/>
+      <c r="J56" s="30"/>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A57" s="29" t="s">
+        <v>199</v>
+      </c>
+      <c r="B57" s="30"/>
+      <c r="C57" s="30"/>
+      <c r="D57" s="30"/>
+      <c r="E57" s="30"/>
+      <c r="F57" s="42"/>
+      <c r="G57" s="30"/>
+      <c r="H57" s="30"/>
+      <c r="I57" s="30"/>
+      <c r="J57" s="30"/>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A58" s="29" t="s">
+        <v>234</v>
+      </c>
+      <c r="B58" s="30"/>
+      <c r="C58" s="30"/>
+      <c r="D58" s="30"/>
+      <c r="E58" s="30"/>
+      <c r="F58" s="42"/>
+      <c r="G58" s="30"/>
+      <c r="H58" s="30"/>
+      <c r="I58" s="30"/>
+      <c r="J58" s="30"/>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A59" s="29" t="s">
+        <v>235</v>
+      </c>
+      <c r="B59" s="30"/>
+      <c r="C59" s="30"/>
+      <c r="D59" s="30"/>
+      <c r="E59" s="30"/>
+      <c r="F59" s="42"/>
+      <c r="G59" s="30"/>
+      <c r="H59" s="30"/>
+      <c r="I59" s="30"/>
+      <c r="J59" s="30"/>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A60" s="29" t="s">
+        <v>197</v>
+      </c>
+      <c r="B60" s="30"/>
+      <c r="C60" s="30"/>
+      <c r="D60" s="30"/>
+      <c r="E60" s="30"/>
+      <c r="F60" s="42"/>
+      <c r="G60" s="30"/>
+      <c r="H60" s="30"/>
+      <c r="I60" s="30"/>
+      <c r="J60" s="30"/>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A61" s="29" t="s">
+        <v>236</v>
+      </c>
+      <c r="B61" s="30"/>
+      <c r="C61" s="30"/>
+      <c r="D61" s="30"/>
+      <c r="E61" s="30"/>
+      <c r="F61" s="42"/>
+      <c r="G61" s="30"/>
+      <c r="H61" s="30"/>
+      <c r="I61" s="30"/>
+      <c r="J61" s="30"/>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A62" s="29" t="s">
+        <v>237</v>
+      </c>
+      <c r="B62" s="30"/>
+      <c r="C62" s="30"/>
+      <c r="D62" s="30"/>
+      <c r="E62" s="30"/>
+      <c r="F62" s="41"/>
+      <c r="G62" s="30"/>
+      <c r="H62" s="30"/>
+      <c r="I62" s="30"/>
+      <c r="J62" s="30"/>
+    </row>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A63" s="29" t="s">
+        <v>238</v>
+      </c>
+      <c r="B63" s="30"/>
+      <c r="C63" s="30"/>
+      <c r="D63" s="30"/>
+      <c r="E63" s="30"/>
+      <c r="G63" s="30"/>
+      <c r="H63" s="30"/>
+      <c r="I63" s="30"/>
+      <c r="J63" s="30"/>
+    </row>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A64" s="29" t="s">
+        <v>239</v>
+      </c>
+      <c r="B64" s="30"/>
+      <c r="C64" s="30"/>
+      <c r="D64" s="30"/>
+      <c r="E64" s="30"/>
+      <c r="G64" s="30"/>
+      <c r="H64" s="30"/>
+      <c r="I64" s="30"/>
+      <c r="J64" s="30"/>
+    </row>
+  </sheetData>
+  <mergeCells count="35">
+    <mergeCell ref="E37:H37"/>
+    <mergeCell ref="E39:H39"/>
+    <mergeCell ref="E42:G42"/>
+    <mergeCell ref="B48:E48"/>
+    <mergeCell ref="G48:J48"/>
+    <mergeCell ref="E31:H31"/>
+    <mergeCell ref="E32:H32"/>
+    <mergeCell ref="E33:H33"/>
+    <mergeCell ref="E34:H34"/>
+    <mergeCell ref="E35:H35"/>
+    <mergeCell ref="E36:H36"/>
+    <mergeCell ref="E24:H24"/>
+    <mergeCell ref="E25:H25"/>
+    <mergeCell ref="E26:H26"/>
+    <mergeCell ref="E27:H27"/>
+    <mergeCell ref="E28:H28"/>
+    <mergeCell ref="E29:H29"/>
+    <mergeCell ref="E18:H18"/>
+    <mergeCell ref="E19:H19"/>
+    <mergeCell ref="E20:H20"/>
+    <mergeCell ref="E21:H21"/>
+    <mergeCell ref="E22:H22"/>
+    <mergeCell ref="E23:H23"/>
+    <mergeCell ref="E11:H11"/>
+    <mergeCell ref="E13:H13"/>
+    <mergeCell ref="E14:H14"/>
+    <mergeCell ref="E15:H15"/>
+    <mergeCell ref="E16:H16"/>
+    <mergeCell ref="E17:H17"/>
+    <mergeCell ref="E5:H5"/>
+    <mergeCell ref="E6:H6"/>
+    <mergeCell ref="E7:H7"/>
+    <mergeCell ref="E8:H8"/>
+    <mergeCell ref="E9:H9"/>
+    <mergeCell ref="E10:H10"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="71" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
+  <headerFooter>
+    <oddHeader>&amp;C&amp;"-,Gras"&amp;36&amp;KC00000Check-list du véhicule</oddHeader>
+    <oddFooter>&amp;CVersion 2.0 du 27/12/2018&amp;RSTUF'2019 Optimus</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F95E82DA-A1D2-4027-B9CD-B819995ED6A7}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:F33"/>
+  <sheetViews>
+    <sheetView showGridLines="0" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="16.08984375" style="43" customWidth="1"/>
+    <col min="2" max="2" width="16.6328125" style="43" customWidth="1"/>
+    <col min="3" max="5" width="12.54296875" style="43" customWidth="1"/>
+    <col min="6" max="6" width="15.81640625" style="43" customWidth="1"/>
+    <col min="7" max="16384" width="8.90625" style="43"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="21.65" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="43" t="s">
+        <v>168</v>
+      </c>
+      <c r="E1" s="43" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="3" spans="1:6" ht="19.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="44" t="s">
+        <v>240</v>
+      </c>
+      <c r="B3" s="45"/>
+      <c r="C3" s="46" t="s">
+        <v>241</v>
+      </c>
+      <c r="D3" s="47"/>
+      <c r="E3" s="48" t="s">
+        <v>242</v>
+      </c>
+      <c r="F3" s="47"/>
+    </row>
+    <row r="4" spans="1:6" ht="19.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A4" s="49"/>
+      <c r="B4" s="50"/>
+      <c r="C4" s="51" t="s">
+        <v>243</v>
+      </c>
+      <c r="D4" s="52" t="s">
+        <v>244</v>
+      </c>
+      <c r="E4" s="53" t="s">
+        <v>243</v>
+      </c>
+      <c r="F4" s="52" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="19.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="46" t="s">
+        <v>245</v>
+      </c>
+      <c r="B5" s="47"/>
+      <c r="C5" s="54"/>
+      <c r="D5" s="55"/>
+      <c r="E5" s="54"/>
+      <c r="F5" s="55"/>
+    </row>
+    <row r="6" spans="1:6" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A6" s="56" t="s">
+        <v>246</v>
+      </c>
+      <c r="B6" s="57"/>
+      <c r="C6" s="58"/>
+      <c r="D6" s="59"/>
+      <c r="E6" s="58"/>
+      <c r="F6" s="59"/>
+    </row>
+    <row r="7" spans="1:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="60" t="s">
+        <v>247</v>
+      </c>
+      <c r="B7" s="61" t="s">
+        <v>248</v>
+      </c>
+      <c r="C7" s="62"/>
+      <c r="D7" s="63"/>
+      <c r="E7" s="63"/>
+      <c r="F7" s="64"/>
+    </row>
+    <row r="8" spans="1:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="65"/>
+      <c r="B8" s="66" t="s">
+        <v>249</v>
+      </c>
+      <c r="C8" s="67"/>
+      <c r="D8" s="68"/>
+      <c r="E8" s="68"/>
+      <c r="F8" s="69"/>
+    </row>
+    <row r="9" spans="1:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="70" t="s">
+        <v>250</v>
+      </c>
+      <c r="B9" s="71"/>
+      <c r="C9" s="67"/>
+      <c r="D9" s="68"/>
+      <c r="E9" s="68"/>
+      <c r="F9" s="69"/>
+    </row>
+    <row r="10" spans="1:6" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A10" s="56" t="s">
+        <v>251</v>
+      </c>
+      <c r="B10" s="57"/>
+      <c r="C10" s="72"/>
+      <c r="D10" s="73"/>
+      <c r="E10" s="73"/>
+      <c r="F10" s="74"/>
+    </row>
+    <row r="11" spans="1:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="60" t="s">
+        <v>252</v>
+      </c>
+      <c r="B11" s="61" t="s">
+        <v>253</v>
+      </c>
+      <c r="C11" s="75" t="s">
+        <v>254</v>
+      </c>
+      <c r="D11" s="76"/>
+      <c r="E11" s="75" t="s">
+        <v>255</v>
+      </c>
+      <c r="F11" s="76"/>
+    </row>
+    <row r="12" spans="1:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="65"/>
+      <c r="B12" s="66" t="s">
+        <v>256</v>
+      </c>
+      <c r="C12" s="77" t="s">
+        <v>257</v>
+      </c>
+      <c r="D12" s="78" t="s">
+        <v>257</v>
+      </c>
+      <c r="E12" s="77" t="s">
+        <v>257</v>
+      </c>
+      <c r="F12" s="78" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="65"/>
+      <c r="B13" s="66" t="s">
+        <v>258</v>
+      </c>
+      <c r="C13" s="79"/>
+      <c r="D13" s="80"/>
+      <c r="E13" s="79"/>
+      <c r="F13" s="80"/>
+    </row>
+    <row r="14" spans="1:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="65"/>
+      <c r="B14" s="66" t="s">
+        <v>259</v>
+      </c>
+      <c r="C14" s="81" t="s">
+        <v>260</v>
+      </c>
+      <c r="D14" s="82"/>
+      <c r="E14" s="81" t="s">
+        <v>260</v>
+      </c>
+      <c r="F14" s="82"/>
+    </row>
+    <row r="15" spans="1:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="65"/>
+      <c r="B15" s="66" t="s">
+        <v>261</v>
+      </c>
+      <c r="C15" s="79"/>
+      <c r="D15" s="80"/>
+      <c r="E15" s="79"/>
+      <c r="F15" s="80"/>
+    </row>
+    <row r="16" spans="1:6" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A16" s="83"/>
+      <c r="B16" s="84" t="s">
+        <v>262</v>
+      </c>
+      <c r="C16" s="85" t="s">
+        <v>260</v>
+      </c>
+      <c r="D16" s="86"/>
+      <c r="E16" s="85" t="s">
+        <v>260</v>
+      </c>
+      <c r="F16" s="86"/>
+    </row>
+    <row r="17" spans="1:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="46" t="s">
+        <v>263</v>
+      </c>
+      <c r="B17" s="47"/>
+      <c r="C17" s="87">
+        <v>0.5</v>
+      </c>
+      <c r="D17" s="88"/>
+      <c r="E17" s="87">
+        <v>0.5</v>
+      </c>
+      <c r="F17" s="88"/>
+    </row>
+    <row r="18" spans="1:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="89"/>
+      <c r="B18" s="90" t="s">
+        <v>264</v>
+      </c>
+      <c r="C18" s="91" t="s">
+        <v>265</v>
+      </c>
+      <c r="D18" s="92" t="s">
+        <v>265</v>
+      </c>
+      <c r="E18" s="91" t="s">
+        <v>265</v>
+      </c>
+      <c r="F18" s="92" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="89"/>
+      <c r="B19" s="90"/>
+      <c r="C19" s="77" t="s">
+        <v>266</v>
+      </c>
+      <c r="D19" s="78" t="s">
+        <v>266</v>
+      </c>
+      <c r="E19" s="77" t="s">
+        <v>266</v>
+      </c>
+      <c r="F19" s="78" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A20" s="93"/>
+      <c r="B20" s="94"/>
+      <c r="C20" s="58" t="s">
+        <v>267</v>
+      </c>
+      <c r="D20" s="59"/>
+      <c r="E20" s="95" t="s">
+        <v>267</v>
+      </c>
+      <c r="F20" s="96"/>
+    </row>
+    <row r="21" spans="1:6" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A21" s="46" t="s">
+        <v>268</v>
+      </c>
+      <c r="B21" s="47"/>
+      <c r="C21" s="97" t="s">
+        <v>257</v>
+      </c>
+      <c r="D21" s="98" t="s">
+        <v>257</v>
+      </c>
+      <c r="E21" s="99" t="s">
+        <v>257</v>
+      </c>
+      <c r="F21" s="98" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A22" s="100" t="s">
+        <v>210</v>
+      </c>
+      <c r="B22" s="101"/>
+      <c r="C22" s="102"/>
+      <c r="D22" s="100" t="s">
+        <v>269</v>
+      </c>
+      <c r="E22" s="101"/>
+      <c r="F22" s="103"/>
+    </row>
+    <row r="23" spans="1:6" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A23" s="100" t="s">
+        <v>270</v>
+      </c>
+      <c r="B23" s="101"/>
+      <c r="C23" s="102"/>
+      <c r="D23" s="100" t="s">
+        <v>271</v>
+      </c>
+      <c r="E23" s="101"/>
+      <c r="F23" s="104"/>
+    </row>
+    <row r="24" spans="1:6" ht="20.399999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A24" s="100" t="s">
+        <v>272</v>
+      </c>
+      <c r="B24" s="105"/>
+      <c r="C24" s="106"/>
+      <c r="D24" s="106"/>
+      <c r="E24" s="106"/>
+      <c r="F24" s="107"/>
+    </row>
+    <row r="25" spans="1:6" ht="19.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A25" s="108"/>
+      <c r="B25" s="109"/>
+      <c r="C25" s="110"/>
+      <c r="D25" s="110"/>
+      <c r="E25" s="110"/>
+    </row>
+    <row r="26" spans="1:6" ht="19.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="111" t="s">
+        <v>273</v>
+      </c>
+      <c r="B26" s="112"/>
+      <c r="C26" s="112"/>
+      <c r="D26" s="112"/>
+      <c r="E26" s="112"/>
+      <c r="F26" s="113"/>
+    </row>
+    <row r="27" spans="1:6" ht="19.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A27" s="114"/>
+      <c r="B27" s="115"/>
+      <c r="C27" s="115"/>
+      <c r="D27" s="115"/>
+      <c r="E27" s="115"/>
+      <c r="F27" s="116"/>
+    </row>
+    <row r="28" spans="1:6" ht="19.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A28" s="114"/>
+      <c r="B28" s="117"/>
+      <c r="C28" s="117"/>
+      <c r="D28" s="117"/>
+      <c r="E28" s="117"/>
+      <c r="F28" s="118"/>
+    </row>
+    <row r="29" spans="1:6" ht="19.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A29" s="114"/>
+      <c r="B29" s="119"/>
+      <c r="C29" s="119"/>
+      <c r="D29" s="119"/>
+      <c r="E29" s="119"/>
+      <c r="F29" s="118"/>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A30" s="120"/>
+      <c r="B30" s="119"/>
+      <c r="C30" s="119"/>
+      <c r="D30" s="119"/>
+      <c r="E30" s="119"/>
+      <c r="F30" s="118"/>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A31" s="120"/>
+      <c r="B31" s="119"/>
+      <c r="C31" s="119"/>
+      <c r="D31" s="119"/>
+      <c r="E31" s="119"/>
+      <c r="F31" s="118"/>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A32" s="120"/>
+      <c r="B32" s="119"/>
+      <c r="C32" s="119"/>
+      <c r="D32" s="119"/>
+      <c r="E32" s="119"/>
+      <c r="F32" s="118"/>
+    </row>
+    <row r="33" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A33" s="121"/>
+      <c r="B33" s="122"/>
+      <c r="C33" s="122"/>
+      <c r="D33" s="122"/>
+      <c r="E33" s="122"/>
+      <c r="F33" s="123"/>
+    </row>
+  </sheetData>
+  <mergeCells count="34">
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="B26:F27"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="C7:F10"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A3:B4"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="E5:F5"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
+  <headerFooter>
+    <oddHeader>&amp;L&amp;"-,Gras"&amp;14Réglages Véhicule&amp;C&amp;"-,Gras"&amp;24&amp;KC00000Contrôle technique
+&amp;R&amp;G</oddHeader>
+    <oddFooter>&amp;CVersion 2.0 du 27/12/2018&amp;RSTUF'2019 Optimus</oddFooter>
+  </headerFooter>
+  <legacyDrawingHF r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{450BED25-8C34-4248-9D1D-CD419F265B1F}">
+  <dimension ref="A1:F33"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11:D11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="16.08984375" style="43" customWidth="1"/>
+    <col min="2" max="2" width="16.6328125" style="43" customWidth="1"/>
+    <col min="3" max="5" width="12.54296875" style="43" customWidth="1"/>
+    <col min="6" max="6" width="16.81640625" style="43" customWidth="1"/>
+    <col min="7" max="16384" width="8.90625" style="43"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1" s="43" t="s">
+        <v>168</v>
+      </c>
+      <c r="E1" s="43" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="19.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="3" spans="1:6" ht="19.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="44" t="s">
+        <v>240</v>
+      </c>
+      <c r="B3" s="45"/>
+      <c r="C3" s="46" t="s">
+        <v>241</v>
+      </c>
+      <c r="D3" s="47"/>
+      <c r="E3" s="48" t="s">
+        <v>242</v>
+      </c>
+      <c r="F3" s="47"/>
+    </row>
+    <row r="4" spans="1:6" ht="19.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A4" s="49"/>
+      <c r="B4" s="50"/>
+      <c r="C4" s="51" t="s">
+        <v>243</v>
+      </c>
+      <c r="D4" s="52" t="s">
+        <v>244</v>
+      </c>
+      <c r="E4" s="53" t="s">
+        <v>243</v>
+      </c>
+      <c r="F4" s="52" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="46" t="s">
+        <v>245</v>
+      </c>
+      <c r="B5" s="47"/>
+      <c r="C5" s="46"/>
+      <c r="D5" s="47"/>
+      <c r="E5" s="54"/>
+      <c r="F5" s="55"/>
+    </row>
+    <row r="6" spans="1:6" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A6" s="56" t="s">
+        <v>246</v>
+      </c>
+      <c r="B6" s="57"/>
+      <c r="C6" s="58" t="s">
+        <v>274</v>
+      </c>
+      <c r="D6" s="59"/>
+      <c r="E6" s="58" t="s">
+        <v>274</v>
+      </c>
+      <c r="F6" s="59"/>
+    </row>
+    <row r="7" spans="1:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="60" t="s">
+        <v>247</v>
+      </c>
+      <c r="B7" s="61" t="s">
+        <v>248</v>
+      </c>
+      <c r="C7" s="124" t="s">
+        <v>257</v>
+      </c>
+      <c r="D7" s="125" t="s">
+        <v>257</v>
+      </c>
+      <c r="E7" s="124" t="s">
+        <v>257</v>
+      </c>
+      <c r="F7" s="125" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="65"/>
+      <c r="B8" s="66" t="s">
+        <v>249</v>
+      </c>
+      <c r="C8" s="126" t="s">
+        <v>260</v>
+      </c>
+      <c r="D8" s="127" t="s">
+        <v>260</v>
+      </c>
+      <c r="E8" s="77" t="s">
+        <v>257</v>
+      </c>
+      <c r="F8" s="78" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="70" t="s">
+        <v>250</v>
+      </c>
+      <c r="B9" s="71"/>
+      <c r="C9" s="77"/>
+      <c r="D9" s="78"/>
+      <c r="E9" s="77"/>
+      <c r="F9" s="78"/>
+    </row>
+    <row r="10" spans="1:6" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A10" s="56" t="s">
+        <v>251</v>
+      </c>
+      <c r="B10" s="57"/>
+      <c r="C10" s="77"/>
+      <c r="D10" s="78"/>
+      <c r="E10" s="77"/>
+      <c r="F10" s="78"/>
+    </row>
+    <row r="11" spans="1:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="60" t="s">
+        <v>252</v>
+      </c>
+      <c r="B11" s="61" t="s">
+        <v>253</v>
+      </c>
+      <c r="C11" s="128" t="s">
+        <v>255</v>
+      </c>
+      <c r="D11" s="129"/>
+      <c r="E11" s="130" t="s">
+        <v>275</v>
+      </c>
+      <c r="F11" s="131"/>
+    </row>
+    <row r="12" spans="1:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="65"/>
+      <c r="B12" s="66" t="s">
+        <v>256</v>
+      </c>
+      <c r="C12" s="77" t="s">
+        <v>257</v>
+      </c>
+      <c r="D12" s="78" t="s">
+        <v>257</v>
+      </c>
+      <c r="E12" s="77" t="s">
+        <v>257</v>
+      </c>
+      <c r="F12" s="78" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="65"/>
+      <c r="B13" s="66" t="s">
+        <v>258</v>
+      </c>
+      <c r="C13" s="79" t="s">
+        <v>276</v>
+      </c>
+      <c r="D13" s="80"/>
+      <c r="E13" s="79" t="s">
+        <v>277</v>
+      </c>
+      <c r="F13" s="80"/>
+    </row>
+    <row r="14" spans="1:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="65"/>
+      <c r="B14" s="66" t="s">
+        <v>259</v>
+      </c>
+      <c r="C14" s="81" t="s">
+        <v>260</v>
+      </c>
+      <c r="D14" s="82"/>
+      <c r="E14" s="81" t="s">
+        <v>260</v>
+      </c>
+      <c r="F14" s="82"/>
+    </row>
+    <row r="15" spans="1:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="65"/>
+      <c r="B15" s="66" t="s">
+        <v>261</v>
+      </c>
+      <c r="C15" s="79" t="s">
+        <v>277</v>
+      </c>
+      <c r="D15" s="80"/>
+      <c r="E15" s="79" t="s">
+        <v>278</v>
+      </c>
+      <c r="F15" s="80"/>
+    </row>
+    <row r="16" spans="1:6" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A16" s="83"/>
+      <c r="B16" s="84" t="s">
+        <v>262</v>
+      </c>
+      <c r="C16" s="85" t="s">
+        <v>260</v>
+      </c>
+      <c r="D16" s="86"/>
+      <c r="E16" s="85" t="s">
+        <v>260</v>
+      </c>
+      <c r="F16" s="86"/>
+    </row>
+    <row r="17" spans="1:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="46" t="s">
+        <v>263</v>
+      </c>
+      <c r="B17" s="47"/>
+      <c r="C17" s="132" t="s">
+        <v>279</v>
+      </c>
+      <c r="D17" s="88"/>
+      <c r="E17" s="132" t="s">
+        <v>280</v>
+      </c>
+      <c r="F17" s="88"/>
+    </row>
+    <row r="18" spans="1:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="89"/>
+      <c r="B18" s="90" t="s">
+        <v>264</v>
+      </c>
+      <c r="C18" s="91" t="s">
+        <v>265</v>
+      </c>
+      <c r="D18" s="92" t="s">
+        <v>265</v>
+      </c>
+      <c r="E18" s="91" t="s">
+        <v>265</v>
+      </c>
+      <c r="F18" s="92" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="89"/>
+      <c r="B19" s="90"/>
+      <c r="C19" s="77" t="s">
+        <v>266</v>
+      </c>
+      <c r="D19" s="78" t="s">
+        <v>266</v>
+      </c>
+      <c r="E19" s="77" t="s">
+        <v>266</v>
+      </c>
+      <c r="F19" s="78" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A20" s="93"/>
+      <c r="B20" s="94"/>
+      <c r="C20" s="58" t="s">
+        <v>267</v>
+      </c>
+      <c r="D20" s="59"/>
+      <c r="E20" s="95" t="s">
+        <v>267</v>
+      </c>
+      <c r="F20" s="96"/>
+    </row>
+    <row r="21" spans="1:6" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A21" s="46" t="s">
+        <v>268</v>
+      </c>
+      <c r="B21" s="47"/>
+      <c r="C21" s="97" t="s">
+        <v>257</v>
+      </c>
+      <c r="D21" s="98" t="s">
+        <v>257</v>
+      </c>
+      <c r="E21" s="99" t="s">
+        <v>257</v>
+      </c>
+      <c r="F21" s="98" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A22" s="100" t="s">
+        <v>210</v>
+      </c>
+      <c r="B22" s="101"/>
+      <c r="C22" s="102"/>
+      <c r="D22" s="100" t="s">
+        <v>269</v>
+      </c>
+      <c r="E22" s="101"/>
+      <c r="F22" s="103"/>
+    </row>
+    <row r="23" spans="1:6" ht="20.399999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A23" s="100" t="s">
+        <v>270</v>
+      </c>
+      <c r="B23" s="101"/>
+      <c r="C23" s="102"/>
+      <c r="D23" s="100" t="s">
+        <v>271</v>
+      </c>
+      <c r="E23" s="101"/>
+      <c r="F23" s="104"/>
+    </row>
+    <row r="24" spans="1:6" ht="19.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A24" s="100" t="s">
+        <v>272</v>
+      </c>
+      <c r="B24" s="105"/>
+      <c r="C24" s="106"/>
+      <c r="D24" s="106"/>
+      <c r="E24" s="106"/>
+      <c r="F24" s="107"/>
+    </row>
+    <row r="25" spans="1:6" ht="19.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A25" s="108"/>
+      <c r="B25" s="109"/>
+      <c r="C25" s="110"/>
+      <c r="D25" s="110"/>
+      <c r="E25" s="110"/>
+    </row>
+    <row r="26" spans="1:6" ht="19.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="111" t="s">
+        <v>281</v>
+      </c>
+      <c r="B26" s="133"/>
+      <c r="C26" s="133"/>
+      <c r="D26" s="133"/>
+      <c r="E26" s="133"/>
+      <c r="F26" s="134"/>
+    </row>
+    <row r="27" spans="1:6" ht="19.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A27" s="114"/>
+      <c r="B27" s="117"/>
+      <c r="C27" s="117"/>
+      <c r="D27" s="117"/>
+      <c r="E27" s="117"/>
+      <c r="F27" s="118"/>
+    </row>
+    <row r="28" spans="1:6" ht="19.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A28" s="114"/>
+      <c r="B28" s="117"/>
+      <c r="C28" s="117"/>
+      <c r="D28" s="117"/>
+      <c r="E28" s="117"/>
+      <c r="F28" s="118"/>
+    </row>
+    <row r="29" spans="1:6" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A29" s="114"/>
+      <c r="B29" s="119"/>
+      <c r="C29" s="119"/>
+      <c r="D29" s="119"/>
+      <c r="E29" s="119"/>
+      <c r="F29" s="118"/>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A30" s="120"/>
+      <c r="B30" s="119"/>
+      <c r="C30" s="119"/>
+      <c r="D30" s="119"/>
+      <c r="E30" s="119"/>
+      <c r="F30" s="118"/>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A31" s="120"/>
+      <c r="B31" s="119"/>
+      <c r="C31" s="119"/>
+      <c r="D31" s="119"/>
+      <c r="E31" s="119"/>
+      <c r="F31" s="118"/>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A32" s="120"/>
+      <c r="B32" s="119"/>
+      <c r="C32" s="119"/>
+      <c r="D32" s="119"/>
+      <c r="E32" s="119"/>
+      <c r="F32" s="118"/>
+    </row>
+    <row r="33" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A33" s="121"/>
+      <c r="B33" s="122"/>
+      <c r="C33" s="122"/>
+      <c r="D33" s="122"/>
+      <c r="E33" s="122"/>
+      <c r="F33" s="123"/>
+    </row>
+  </sheetData>
+  <mergeCells count="32">
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="A3:B4"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="E5:F5"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <headerFooter>
+    <oddHeader>&amp;L&amp;"-,Gras"&amp;14Réglages Véhicule&amp;C&amp;"-,Gras"&amp;18&amp;KFF0000Accélération&amp;R&amp;G</oddHeader>
+    <oddFooter>&amp;CVersion 2.0 du 27/12/2018&amp;RSTUF'2019 Optimus</oddFooter>
+  </headerFooter>
+  <legacyDrawingHF r:id="rId2"/>
+</worksheet>
 </file>